--- a/clustering_coefficient.xlsx
+++ b/clustering_coefficient.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="698">
   <si>
     <t>Hashtag</t>
   </si>
@@ -22,18 +22,18 @@
     <t>#stopsmoking</t>
   </si>
   <si>
+    <t>#vapes</t>
+  </si>
+  <si>
+    <t>#nrt</t>
+  </si>
+  <si>
+    <t>#e</t>
+  </si>
+  <si>
     <t>#antismoking</t>
   </si>
   <si>
-    <t>#vapes</t>
-  </si>
-  <si>
-    <t>#nrt</t>
-  </si>
-  <si>
-    <t>#e</t>
-  </si>
-  <si>
     <t>#smokefree</t>
   </si>
   <si>
@@ -298,12 +298,309 @@
     <t>#healthylife</t>
   </si>
   <si>
+    <t>#worldmalariaday</t>
+  </si>
+  <si>
+    <t>#acupunctureworks</t>
+  </si>
+  <si>
+    <t>#addiction</t>
+  </si>
+  <si>
+    <t>#umstieg</t>
+  </si>
+  <si>
+    <t>#jetzt</t>
+  </si>
+  <si>
+    <t>#ezigarette</t>
+  </si>
+  <si>
+    <t>#podkit</t>
+  </si>
+  <si>
+    <t>#hypnosis</t>
+  </si>
+  <si>
+    <t>#eastridingsmokefreegeneration</t>
+  </si>
+  <si>
+    <t>#healthtrainers</t>
+  </si>
+  <si>
+    <t>#quitcigarette</t>
+  </si>
+  <si>
+    <t>#smoker</t>
+  </si>
+  <si>
+    <t>#android</t>
+  </si>
+  <si>
+    <t>#iphone</t>
+  </si>
+  <si>
+    <t>#app</t>
+  </si>
+  <si>
+    <t>#health</t>
+  </si>
+  <si>
+    <t>#smokefreelife</t>
+  </si>
+  <si>
+    <t>#copd</t>
+  </si>
+  <si>
+    <t>#respiratory</t>
+  </si>
+  <si>
+    <t>#lunghealth</t>
+  </si>
+  <si>
+    <t>#nhs</t>
+  </si>
+  <si>
+    <t>#healthwatchsunderland</t>
+  </si>
+  <si>
+    <t>#nonsmoker</t>
+  </si>
+  <si>
+    <t>#tobacco</t>
+  </si>
+  <si>
+    <t>#happybookday</t>
+  </si>
+  <si>
+    <t>#worldbookday</t>
+  </si>
+  <si>
+    <t>#bookday</t>
+  </si>
+  <si>
+    <t>#kickthehabit</t>
+  </si>
+  <si>
+    <t>#tobaccofree</t>
+  </si>
+  <si>
+    <t>#quittobacco</t>
+  </si>
+  <si>
+    <t>#nicotine</t>
+  </si>
+  <si>
+    <t>#vapefree</t>
+  </si>
+  <si>
+    <t>#publichealth</t>
+  </si>
+  <si>
+    <t>#costofliving</t>
+  </si>
+  <si>
+    <t>#akshaykumar</t>
+  </si>
+  <si>
+    <t>#salmankhan</t>
+  </si>
+  <si>
+    <t>#vimal</t>
+  </si>
+  <si>
+    <t>#gutka</t>
+  </si>
+  <si>
+    <t>#smoking</t>
+  </si>
+  <si>
+    <t>#smokingkills</t>
+  </si>
+  <si>
+    <t>#boycottbollywood</t>
+  </si>
+  <si>
+    <t>#firesafety</t>
+  </si>
+  <si>
+    <t>#vape</t>
+  </si>
+  <si>
+    <t>#uknicopods</t>
+  </si>
+  <si>
+    <t>#snus</t>
+  </si>
+  <si>
+    <t>#snuslife</t>
+  </si>
+  <si>
+    <t>#snusnation</t>
+  </si>
+  <si>
+    <t>#nicopods</t>
+  </si>
+  <si>
+    <t>#notobacco</t>
+  </si>
+  <si>
+    <t>#smokeless</t>
+  </si>
+  <si>
+    <t>#footballsnus</t>
+  </si>
+  <si>
+    <t>#nicopodsuk</t>
+  </si>
+  <si>
+    <t>#lyft</t>
+  </si>
+  <si>
+    <t>#snusdosa</t>
+  </si>
+  <si>
+    <t>#snusland</t>
+  </si>
+  <si>
+    <t>#snuscentral</t>
+  </si>
+  <si>
+    <t>#snusshop</t>
+  </si>
+  <si>
+    <t>#snusreview</t>
+  </si>
+  <si>
+    <t>#snusforlife</t>
+  </si>
+  <si>
+    <t>#snusodens</t>
+  </si>
+  <si>
+    <t>#snuslovers</t>
+  </si>
+  <si>
+    <t>#snustagram</t>
+  </si>
+  <si>
+    <t>#uksnus</t>
+  </si>
+  <si>
+    <t>#snustime</t>
+  </si>
+  <si>
+    <t>#fireandrescue</t>
+  </si>
+  <si>
+    <t>#boston</t>
+  </si>
+  <si>
+    <t>#cigarettes</t>
+  </si>
+  <si>
+    <t>#yourfavoritehypnotist</t>
+  </si>
+  <si>
+    <t>#healthyskin</t>
+  </si>
+  <si>
+    <t>#dermatology</t>
+  </si>
+  <si>
+    <t>#naturalbeauty</t>
+  </si>
+  <si>
+    <t>#moisturize</t>
+  </si>
+  <si>
+    <t>#sunscreen</t>
+  </si>
+  <si>
+    <t>#dermatologist</t>
+  </si>
+  <si>
+    <t>#beauty</t>
+  </si>
+  <si>
+    <t>#skincare</t>
+  </si>
+  <si>
+    <t>#beautyandskin</t>
+  </si>
+  <si>
+    <t>#bladdercancer</t>
+  </si>
+  <si>
+    <t>#bladdercancersupport</t>
+  </si>
+  <si>
+    <t>#causesofbladdercancer</t>
+  </si>
+  <si>
+    <t>#environmentaltoxins</t>
+  </si>
+  <si>
+    <t>#occupationalcancer</t>
+  </si>
+  <si>
+    <t>#cancersurvivor</t>
+  </si>
+  <si>
+    <t>#cancerpatient</t>
+  </si>
+  <si>
+    <t>#canceradvocate</t>
+  </si>
+  <si>
+    <t>#breakyourcigarette</t>
+  </si>
+  <si>
+    <t>#saynotosmoking</t>
+  </si>
+  <si>
+    <t>#notosmoking</t>
+  </si>
+  <si>
+    <t>#startliving</t>
+  </si>
+  <si>
+    <t>#phobias</t>
+  </si>
+  <si>
+    <t>#ocd</t>
+  </si>
+  <si>
+    <t>#anxiety</t>
+  </si>
+  <si>
+    <t>#depre</t>
+  </si>
+  <si>
+    <t>#depression</t>
+  </si>
+  <si>
+    <t>#confidence</t>
+  </si>
+  <si>
+    <t>#motivation</t>
+  </si>
+  <si>
+    <t>#emetophobia</t>
+  </si>
+  <si>
+    <t>#covid19</t>
+  </si>
+  <si>
+    <t>#tuesdaymotivations</t>
+  </si>
+  <si>
+    <t>#zoom</t>
+  </si>
+  <si>
     <t>#escprev2022</t>
   </si>
   <si>
-    <t>#vape</t>
-  </si>
-  <si>
     <t>#vaptio</t>
   </si>
   <si>
@@ -352,9 +649,6 @@
     <t>#ecig</t>
   </si>
   <si>
-    <t>#podkit</t>
-  </si>
-  <si>
     <t>#nosmoke</t>
   </si>
   <si>
@@ -376,9 +670,6 @@
     <t>#behindthehaze</t>
   </si>
   <si>
-    <t>#vapefree</t>
-  </si>
-  <si>
     <t>#eliminatetobaccouse</t>
   </si>
   <si>
@@ -388,9 +679,6 @@
     <t>#vapefacts</t>
   </si>
   <si>
-    <t>#publichealth</t>
-  </si>
-  <si>
     <t>#featurefriday</t>
   </si>
   <si>
@@ -415,12 +703,6 @@
     <t>#teo</t>
   </si>
   <si>
-    <t>#tobaccofree</t>
-  </si>
-  <si>
-    <t>#nicotine</t>
-  </si>
-  <si>
     <t>#zyn</t>
   </si>
   <si>
@@ -439,9 +721,6 @@
     <t>#sealebia</t>
   </si>
   <si>
-    <t>#health</t>
-  </si>
-  <si>
     <t>#ecigarette</t>
   </si>
   <si>
@@ -457,9 +736,6 @@
     <t>#shisha</t>
   </si>
   <si>
-    <t>#snus</t>
-  </si>
-  <si>
     <t>#bestejuic</t>
   </si>
   <si>
@@ -499,9 +775,6 @@
     <t>#karachi</t>
   </si>
   <si>
-    <t>#smoking</t>
-  </si>
-  <si>
     <t>#exposure</t>
   </si>
   <si>
@@ -667,6 +940,66 @@
     <t>#quitsm</t>
   </si>
   <si>
+    <t>#thebatman</t>
+  </si>
+  <si>
+    <t>#meat20</t>
+  </si>
+  <si>
+    <t>#vape放出</t>
+  </si>
+  <si>
+    <t>#vape好きな人と繋がりたい</t>
+  </si>
+  <si>
+    <t>#vapecommunity</t>
+  </si>
+  <si>
+    <t>#vaporwave</t>
+  </si>
+  <si>
+    <t>#vapotage</t>
+  </si>
+  <si>
+    <t>#vapers</t>
+  </si>
+  <si>
+    <t>#ciggarettssuck</t>
+  </si>
+  <si>
+    <t>#smokefreejourney</t>
+  </si>
+  <si>
+    <t>#firefighter</t>
+  </si>
+  <si>
+    <t>#quit</t>
+  </si>
+  <si>
+    <t>#smokers</t>
+  </si>
+  <si>
+    <t>#unsmokeisajoke</t>
+  </si>
+  <si>
+    <t>#exposetobacco</t>
+  </si>
+  <si>
+    <t>#theisland</t>
+  </si>
+  <si>
+    <t>#theislandnewspaper</t>
+  </si>
+  <si>
+    <t>#theislandonline</t>
+  </si>
+  <si>
+    <t>#totalban</t>
+  </si>
+  <si>
+    <t>#smoke</t>
+  </si>
+  <si>
     <t>#stopwatchhabit</t>
   </si>
   <si>
@@ -682,12 +1015,6 @@
     <t>#nicotinepouches</t>
   </si>
   <si>
-    <t>#nicopods</t>
-  </si>
-  <si>
-    <t>#smokeless</t>
-  </si>
-  <si>
     <t>#gosmokeless</t>
   </si>
   <si>
@@ -712,9 +1039,6 @@
     <t>#nicotinepods</t>
   </si>
   <si>
-    <t>#hypnosis</t>
-  </si>
-  <si>
     <t>#oralcancerawarenessmonth</t>
   </si>
   <si>
@@ -784,21 +1108,12 @@
     <t>#savemoney</t>
   </si>
   <si>
-    <t>#nhs</t>
-  </si>
-  <si>
-    <t>#quittobacco</t>
-  </si>
-  <si>
     <t>#talesofswagatika</t>
   </si>
   <si>
     <t>#cancer</t>
   </si>
   <si>
-    <t>#cancersurvivor</t>
-  </si>
-  <si>
     <t>#awareness</t>
   </si>
   <si>
@@ -878,6 +1193,918 @@
   </si>
   <si>
     <t>#subarachnoidhemorrhage</t>
+  </si>
+  <si>
+    <t>#win</t>
+  </si>
+  <si>
+    <t>#joymy</t>
+  </si>
+  <si>
+    <t>#d</t>
+  </si>
+  <si>
+    <t>#furywhyte</t>
+  </si>
+  <si>
+    <t>#quitsmoki</t>
+  </si>
+  <si>
+    <t>#passive</t>
+  </si>
+  <si>
+    <t>#cigerrate</t>
+  </si>
+  <si>
+    <t>#disposable</t>
+  </si>
+  <si>
+    <t>#wholesalers</t>
+  </si>
+  <si>
+    <t>#vapedistributors</t>
+  </si>
+  <si>
+    <t>#vapeusa</t>
+  </si>
+  <si>
+    <t>#vapedubai</t>
+  </si>
+  <si>
+    <t>#vapepod</t>
+  </si>
+  <si>
+    <t>#vapepen</t>
+  </si>
+  <si>
+    <t>#vapeukraine</t>
+  </si>
+  <si>
+    <t>#vaperussia</t>
+  </si>
+  <si>
+    <t>#vapeeurope</t>
+  </si>
+  <si>
+    <t>#vapepenang</t>
+  </si>
+  <si>
+    <t>#antivape</t>
+  </si>
+  <si>
+    <t>#aa</t>
+  </si>
+  <si>
+    <t>#na</t>
+  </si>
+  <si>
+    <t>#vapeaddiction</t>
+  </si>
+  <si>
+    <t>#mrfog</t>
+  </si>
+  <si>
+    <t>#mrfogmax</t>
+  </si>
+  <si>
+    <t>#disposablevape</t>
+  </si>
+  <si>
+    <t>#lastvape</t>
+  </si>
+  <si>
+    <t>#breakyouraddiction</t>
+  </si>
+  <si>
+    <t>#nicsick</t>
+  </si>
+  <si>
+    <t>#antivaping</t>
+  </si>
+  <si>
+    <t>#weed</t>
+  </si>
+  <si>
+    <t>#stressless</t>
+  </si>
+  <si>
+    <t>#njquitline</t>
+  </si>
+  <si>
+    <t>#heretohelp</t>
+  </si>
+  <si>
+    <t>#arsmun</t>
+  </si>
+  <si>
+    <t>#breakfree</t>
+  </si>
+  <si>
+    <t>#laserstopsmokingtherapy</t>
+  </si>
+  <si>
+    <t>#finallyquitsmoking</t>
+  </si>
+  <si>
+    <t>#oxfordshire</t>
+  </si>
+  <si>
+    <t>#stopforlife</t>
+  </si>
+  <si>
+    <t>#habit</t>
+  </si>
+  <si>
+    <t>#switch</t>
+  </si>
+  <si>
+    <t>#hatecigerrate</t>
+  </si>
+  <si>
+    <t>#relx</t>
+  </si>
+  <si>
+    <t>#relxpod</t>
+  </si>
+  <si>
+    <t>#pod</t>
+  </si>
+  <si>
+    <t>#relxnow</t>
+  </si>
+  <si>
+    <t>#relxinfinity</t>
+  </si>
+  <si>
+    <t>#relxpods</t>
+  </si>
+  <si>
+    <t>#relxvapeinstock</t>
+  </si>
+  <si>
+    <t>#relxkit</t>
+  </si>
+  <si>
+    <t>#relxpodsystem</t>
+  </si>
+  <si>
+    <t>#smoknordpod</t>
+  </si>
+  <si>
+    <t>#vapeforlife</t>
+  </si>
+  <si>
+    <t>#relxclassic</t>
+  </si>
+  <si>
+    <t>#thehappynonsmoker</t>
+  </si>
+  <si>
+    <t>#beablessing</t>
+  </si>
+  <si>
+    <t>#wellness</t>
+  </si>
+  <si>
+    <t>#gettingsober</t>
+  </si>
+  <si>
+    <t>#newgoalsinlife</t>
+  </si>
+  <si>
+    <t>#menatalhealth</t>
+  </si>
+  <si>
+    <t>#herbaltea</t>
+  </si>
+  <si>
+    <t>#gingerlemontea</t>
+  </si>
+  <si>
+    <t>#newpurpose</t>
+  </si>
+  <si>
+    <t>#dice</t>
+  </si>
+  <si>
+    <t>#startthejourney</t>
+  </si>
+  <si>
+    <t>#mentalhealth</t>
+  </si>
+  <si>
+    <t>#casio</t>
+  </si>
+  <si>
+    <t>#nicorette</t>
+  </si>
+  <si>
+    <t>#nstnation</t>
+  </si>
+  <si>
+    <t>#cancercare</t>
+  </si>
+  <si>
+    <t>#lungcancer</t>
+  </si>
+  <si>
+    <t>#lungs</t>
+  </si>
+  <si>
+    <t>#nomoresmoking</t>
+  </si>
+  <si>
+    <t>#cancerrounds</t>
+  </si>
+  <si>
+    <t>#cancertreatments</t>
+  </si>
+  <si>
+    <t>#cancerpetients</t>
+  </si>
+  <si>
+    <t>#smokefreecanada</t>
+  </si>
+  <si>
+    <t>#quitchallenge</t>
+  </si>
+  <si>
+    <t>#masterlevel</t>
+  </si>
+  <si>
+    <t>#financialresults</t>
+  </si>
+  <si>
+    <t>#healthtips</t>
+  </si>
+  <si>
+    <t>#herbalcigarette</t>
+  </si>
+  <si>
+    <t>#happiness</t>
+  </si>
+  <si>
+    <t>#quotes</t>
+  </si>
+  <si>
+    <t>#wordle306</t>
+  </si>
+  <si>
+    <t>#ethereum</t>
+  </si>
+  <si>
+    <t>#thekardashians</t>
+  </si>
+  <si>
+    <t>#tobaccoindustry</t>
+  </si>
+  <si>
+    <t>#burnedbytobacco</t>
+  </si>
+  <si>
+    <t>#shib</t>
+  </si>
+  <si>
+    <t>#thursday</t>
+  </si>
+  <si>
+    <t>#life</t>
+  </si>
+  <si>
+    <t>#ocean</t>
+  </si>
+  <si>
+    <t>#westcoast</t>
+  </si>
+  <si>
+    <t>#nfl</t>
+  </si>
+  <si>
+    <t>#psychedelics</t>
+  </si>
+  <si>
+    <t>#treatment</t>
+  </si>
+  <si>
+    <t>#stopsmokingtips</t>
+  </si>
+  <si>
+    <t>#wellbeing</t>
+  </si>
+  <si>
+    <t>#takecareofyourbody</t>
+  </si>
+  <si>
+    <t>#quitcigarettes</t>
+  </si>
+  <si>
+    <t>#livesober</t>
+  </si>
+  <si>
+    <t>#lovelife</t>
+  </si>
+  <si>
+    <t>#charlottehypnotist</t>
+  </si>
+  <si>
+    <t>#charlottestopsmoking</t>
+  </si>
+  <si>
+    <t>#charlotteweightloss</t>
+  </si>
+  <si>
+    <t>#advice</t>
+  </si>
+  <si>
+    <t>#question</t>
+  </si>
+  <si>
+    <t>#crazy</t>
+  </si>
+  <si>
+    <t>#trees</t>
+  </si>
+  <si>
+    <t>#dyk</t>
+  </si>
+  <si>
+    <t>#ecigs</t>
+  </si>
+  <si>
+    <t>#thursdaymorning</t>
+  </si>
+  <si>
+    <t>#nicotinegum</t>
+  </si>
+  <si>
+    <t>#snusuk</t>
+  </si>
+  <si>
+    <t>#nicopodsandpouches</t>
+  </si>
+  <si>
+    <t>#podsandpouches</t>
+  </si>
+  <si>
+    <t>#siberiasnus</t>
+  </si>
+  <si>
+    <t>#uknicopod</t>
+  </si>
+  <si>
+    <t>#killa</t>
+  </si>
+  <si>
+    <t>#odens</t>
+  </si>
+  <si>
+    <t>#nocancer</t>
+  </si>
+  <si>
+    <t>#behappyworld</t>
+  </si>
+  <si>
+    <t>#sober</t>
+  </si>
+  <si>
+    <t>#breathe</t>
+  </si>
+  <si>
+    <t>#heartmonth</t>
+  </si>
+  <si>
+    <t>#freshaironair</t>
+  </si>
+  <si>
+    <t>#shamelessselfpromo</t>
+  </si>
+  <si>
+    <t>#alchemys</t>
+  </si>
+  <si>
+    <t>#nicotinesucks</t>
+  </si>
+  <si>
+    <t>#quittingsmoking</t>
+  </si>
+  <si>
+    <t>#recoveryispossible</t>
+  </si>
+  <si>
+    <t>#quitnow</t>
+  </si>
+  <si>
+    <t>#888vapour</t>
+  </si>
+  <si>
+    <t>#voopoo</t>
+  </si>
+  <si>
+    <t>#vapenation</t>
+  </si>
+  <si>
+    <t>#creatingease</t>
+  </si>
+  <si>
+    <t>#nomorepain</t>
+  </si>
+  <si>
+    <t>#loseweight</t>
+  </si>
+  <si>
+    <t>#authenticself</t>
+  </si>
+  <si>
+    <t>#happy</t>
+  </si>
+  <si>
+    <t>#mindsetmatters</t>
+  </si>
+  <si>
+    <t>#communicate</t>
+  </si>
+  <si>
+    <t>#clarity</t>
+  </si>
+  <si>
+    <t>#tikilife</t>
+  </si>
+  <si>
+    <t>#middlegeorgia</t>
+  </si>
+  <si>
+    <t>#warnerrobins</t>
+  </si>
+  <si>
+    <t>#cloudmix</t>
+  </si>
+  <si>
+    <t>#georgia</t>
+  </si>
+  <si>
+    <t>#thehut</t>
+  </si>
+  <si>
+    <t>#tikihutvapes</t>
+  </si>
+  <si>
+    <t>#cloudchaser</t>
+  </si>
+  <si>
+    <t>#vapemail</t>
+  </si>
+  <si>
+    <t>#cloudchasing</t>
+  </si>
+  <si>
+    <t>#kyvor</t>
+  </si>
+  <si>
+    <t>#kyvorgenomics</t>
+  </si>
+  <si>
+    <t>#cancersurv</t>
+  </si>
+  <si>
+    <t>#geekbar</t>
+  </si>
+  <si>
+    <t>#vapingfresh</t>
+  </si>
+  <si>
+    <t>#newarrivals</t>
+  </si>
+  <si>
+    <t>#yordles</t>
+  </si>
+  <si>
+    <t>#leagueoflegends</t>
+  </si>
+  <si>
+    <t>#lol</t>
+  </si>
+  <si>
+    <t>#cancertreatment</t>
+  </si>
+  <si>
+    <t>#fightcancer</t>
+  </si>
+  <si>
+    <t>#genomics</t>
+  </si>
+  <si>
+    <t>#genomicscience</t>
+  </si>
+  <si>
+    <t>#canlytx</t>
+  </si>
+  <si>
+    <t>#facts</t>
+  </si>
+  <si>
+    <t>#gracemiraclehomecarellc</t>
+  </si>
+  <si>
+    <t>#dejardefumar</t>
+  </si>
+  <si>
+    <t>#cigarrillos</t>
+  </si>
+  <si>
+    <t>#teens</t>
+  </si>
+  <si>
+    <t>#pharmacotherapy</t>
+  </si>
+  <si>
+    <t>#devices</t>
+  </si>
+  <si>
+    <t>#lifestyle</t>
+  </si>
+  <si>
+    <t>#exercise</t>
+  </si>
+  <si>
+    <t>#healthylif</t>
+  </si>
+  <si>
+    <t>#betterhealth</t>
+  </si>
+  <si>
+    <t>#bangutkha</t>
+  </si>
+  <si>
+    <t>#nobollywood</t>
+  </si>
+  <si>
+    <t>#ajaydevgn</t>
+  </si>
+  <si>
+    <t>#srk</t>
+  </si>
+  <si>
+    <t>#bollywood</t>
+  </si>
+  <si>
+    <t>#nit</t>
+  </si>
+  <si>
+    <t>#nitbylab</t>
+  </si>
+  <si>
+    <t>#heets</t>
+  </si>
+  <si>
+    <t>#iqos</t>
+  </si>
+  <si>
+    <t>#fiit</t>
+  </si>
+  <si>
+    <t>#lil</t>
+  </si>
+  <si>
+    <t>#nitredlabel</t>
+  </si>
+  <si>
+    <t>#nitbluelabel</t>
+  </si>
+  <si>
+    <t>#nitpurplelabel</t>
+  </si>
+  <si>
+    <t>#nitgreenlabel</t>
+  </si>
+  <si>
+    <t>#nitoriginal</t>
+  </si>
+  <si>
+    <t>#nitapplemint</t>
+  </si>
+  <si>
+    <t>#nitblueberry</t>
+  </si>
+  <si>
+    <t>#nitblackcurrant</t>
+  </si>
+  <si>
+    <t>#ecigarettes</t>
+  </si>
+  <si>
+    <t>#hnb</t>
+  </si>
+  <si>
+    <t>#heatnotburn</t>
+  </si>
+  <si>
+    <t>#iqosfriends</t>
+  </si>
+  <si>
+    <t>#iqosnew</t>
+  </si>
+  <si>
+    <t>#heatsticks</t>
+  </si>
+  <si>
+    <t>#heetsiqos</t>
+  </si>
+  <si>
+    <t>#iqosteam</t>
+  </si>
+  <si>
+    <t>#lilkorea</t>
+  </si>
+  <si>
+    <t>#smokeweedeveryday</t>
+  </si>
+  <si>
+    <t>#happy420day</t>
+  </si>
+  <si>
+    <t>#20thapril</t>
+  </si>
+  <si>
+    <t>#coke</t>
+  </si>
+  <si>
+    <t>#invest</t>
+  </si>
+  <si>
+    <t>#cryptocurrency</t>
+  </si>
+  <si>
+    <t>#shibainu</t>
+  </si>
+  <si>
+    <t>#ipad</t>
+  </si>
+  <si>
+    <t>#cocacola</t>
+  </si>
+  <si>
+    <t>#smokefreelifestyle</t>
+  </si>
+  <si>
+    <t>#laserstopsmoking</t>
+  </si>
+  <si>
+    <t>#bitcoin</t>
+  </si>
+  <si>
+    <t>#btc</t>
+  </si>
+  <si>
+    <t>#nepaahec</t>
+  </si>
+  <si>
+    <t>#bethedifference</t>
+  </si>
+  <si>
+    <t>#partnership</t>
+  </si>
+  <si>
+    <t>#vap</t>
+  </si>
+  <si>
+    <t>#cravings</t>
+  </si>
+  <si>
+    <t>#southampton</t>
+  </si>
+  <si>
+    <t>#smokefreesolutionstraining</t>
+  </si>
+  <si>
+    <t>#stopsmokingpractitioner</t>
+  </si>
+  <si>
+    <t>#bechamp</t>
+  </si>
+  <si>
+    <t>#a</t>
+  </si>
+  <si>
+    <t>#alcohol</t>
+  </si>
+  <si>
+    <t>#beactive360</t>
+  </si>
+  <si>
+    <t>#beatncds</t>
+  </si>
+  <si>
+    <t>#beactive</t>
+  </si>
+  <si>
+    <t>#stressawarenessmonth</t>
+  </si>
+  <si>
+    <t>#healthychoices</t>
+  </si>
+  <si>
+    <t>#quittingtime</t>
+  </si>
+  <si>
+    <t>#quittingtips</t>
+  </si>
+  <si>
+    <t>#quittingadvice</t>
+  </si>
+  <si>
+    <t>#quittingisgood</t>
+  </si>
+  <si>
+    <t>#quitsmokingforever</t>
+  </si>
+  <si>
+    <t>#genmist</t>
+  </si>
+  <si>
+    <t>#pbr</t>
+  </si>
+  <si>
+    <t>#nicotinefree</t>
+  </si>
+  <si>
+    <t>#chill</t>
+  </si>
+  <si>
+    <t>#countrygirl</t>
+  </si>
+  <si>
+    <t>#countryboy</t>
+  </si>
+  <si>
+    <t>#countrymusic</t>
+  </si>
+  <si>
+    <t>#quitchewing</t>
+  </si>
+  <si>
+    <t>#tobaccoalternative</t>
+  </si>
+  <si>
+    <t>#packdipspit</t>
+  </si>
+  <si>
+    <t>#jointheevolution</t>
+  </si>
+  <si>
+    <t>#healthyrrific</t>
+  </si>
+  <si>
+    <t>#stopsmok</t>
+  </si>
+  <si>
+    <t>#oralcancer</t>
+  </si>
+  <si>
+    <t>#newage</t>
+  </si>
+  <si>
+    <t>#spirituality</t>
+  </si>
+  <si>
+    <t>#spiritualsunday</t>
+  </si>
+  <si>
+    <t>#mindfullness</t>
+  </si>
+  <si>
+    <t>#writerslift</t>
+  </si>
+  <si>
+    <t>#naturalherbs</t>
+  </si>
+  <si>
+    <t>#deals</t>
+  </si>
+  <si>
+    <t>#juicenpower</t>
+  </si>
+  <si>
+    <t>#shortfills</t>
+  </si>
+  <si>
+    <t>#mondaymotivation</t>
+  </si>
+  <si>
+    <t>#mondaymood</t>
+  </si>
+  <si>
+    <t>#stopsmokingcenter</t>
+  </si>
+  <si>
+    <t>#oralhealth</t>
+  </si>
+  <si>
+    <t>#acupuncturepointstoquitsmoking</t>
+  </si>
+  <si>
+    <t>#stopsmokinghabit</t>
+  </si>
+  <si>
+    <t>#quittoday</t>
+  </si>
+  <si>
+    <t>#stops</t>
+  </si>
+  <si>
+    <t>#oralcancerawareness</t>
+  </si>
+  <si>
+    <t>#homehealthcare</t>
+  </si>
+  <si>
+    <t>#quoteoftheday</t>
+  </si>
+  <si>
+    <t>#hha</t>
+  </si>
+  <si>
+    <t>#pca</t>
+  </si>
+  <si>
+    <t>#quotestoliveby</t>
+  </si>
+  <si>
+    <t>#homecareservices</t>
+  </si>
+  <si>
+    <t>#healthcarecrisis</t>
+  </si>
+  <si>
+    <t>#ayurveda</t>
+  </si>
+  <si>
+    <t>#gomutra</t>
+  </si>
+  <si>
+    <t>#ayurvedictreatment</t>
+  </si>
+  <si>
+    <t>#commomsense</t>
+  </si>
+  <si>
+    <t>#gunviolence</t>
+  </si>
+  <si>
+    <t>#notblowingsmoke</t>
+  </si>
+  <si>
+    <t>#tarfree</t>
+  </si>
+  <si>
+    <t>#r2bsmokefree</t>
+  </si>
+  <si>
+    <t>#abillionlives</t>
+  </si>
+  <si>
+    <t>#chew</t>
+  </si>
+  <si>
+    <t>#hypnosisohio</t>
+  </si>
+  <si>
+    <t>#daytonohio</t>
+  </si>
+  <si>
+    <t>#cincinnatiohio</t>
+  </si>
+  <si>
+    <t>#eatonohio</t>
+  </si>
+  <si>
+    <t>#preblecounty</t>
+  </si>
+  <si>
+    <t>#cuban</t>
+  </si>
+  <si>
+    <t>#cigar</t>
+  </si>
+  <si>
+    <t>#creme</t>
+  </si>
+  <si>
+    <t>#nicsalt</t>
+  </si>
+  <si>
+    <t>#vapez</t>
+  </si>
+  <si>
+    <t>#london</t>
+  </si>
+  <si>
+    <t>#switchontovaping</t>
+  </si>
+  <si>
+    <t>#bornonthisday</t>
+  </si>
+  <si>
+    <t>#day3</t>
   </si>
   <si>
     <t>Coefficient</t>
@@ -1238,7 +2465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1271,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.0272336359292881</v>
+        <v>0.01624568221070812</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1282,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1293,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1304,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1315,7 +2542,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1326,7 +2553,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.01631701631701632</v>
+        <v>0.01890195512589279</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1348,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1359,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.02079475858139866</v>
+        <v>0.005659496839336473</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1370,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1381,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8333333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1436,7 +2663,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1469,7 +2696,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3214285714285715</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1480,7 +2707,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1546,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1557,7 +2784,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1568,7 +2795,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1645,7 +2872,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.0960960960960961</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1700,7 +2927,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1766,7 +2993,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.3214285714285715</v>
+        <v>0.1691176470588235</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1843,7 +3070,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1854,7 +3081,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1942,7 +3169,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.4666666666666667</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2008,7 +3235,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.5</v>
+        <v>0.3090909090909091</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2019,7 +3246,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2063,7 +3290,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.4285714285714285</v>
+        <v>0.2545454545454545</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2085,7 +3312,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2107,7 +3334,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2118,7 +3345,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2129,7 +3356,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2151,7 +3378,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2162,7 +3389,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2173,7 +3400,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2184,7 +3411,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2195,7 +3422,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2206,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2217,7 +3444,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2239,7 +3466,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2294,7 +3521,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2305,7 +3532,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.2444444444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2316,7 +3543,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2327,7 +3554,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2360,7 +3587,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2371,7 +3598,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.4</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2382,7 +3609,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2404,7 +3631,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2426,7 +3653,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2437,7 +3664,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2448,7 +3675,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2459,7 +3686,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0.6666666666666666</v>
+        <v>0.1861471861471861</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2470,7 +3697,7 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2481,7 +3708,7 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2492,7 +3719,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2503,7 +3730,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2514,7 +3741,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2525,7 +3752,7 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2536,7 +3763,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2547,7 +3774,7 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.3516483516483517</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2558,7 +3785,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2569,7 +3796,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2580,7 +3807,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2591,7 +3818,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2602,7 +3829,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>0.6666666666666666</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2613,7 +3840,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>0.6666666666666666</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2624,7 +3851,7 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0.2483660130718954</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2635,7 +3862,7 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2646,7 +3873,7 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2657,7 +3884,7 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>0.5333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2668,7 +3895,7 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2679,7 +3906,7 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2690,7 +3917,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2701,7 +3928,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2712,7 +3939,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>0.6666666666666666</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2723,7 +3950,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>0.2857142857142857</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2734,7 +3961,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2745,7 +3972,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2756,7 +3983,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2767,7 +3994,7 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2778,7 +4005,7 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2789,7 +4016,7 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2800,7 +4027,7 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2811,7 +4038,7 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>0.4</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2822,7 +4049,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>0.6666666666666666</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2833,7 +4060,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>0.6666666666666666</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2855,7 +4082,7 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2866,7 +4093,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2877,7 +4104,7 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2888,7 +4115,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2921,7 +4148,7 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2932,7 +4159,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2943,7 +4170,7 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2976,7 +4203,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2987,7 +4214,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2998,7 +4225,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3020,7 +4247,7 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3031,7 +4258,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3042,7 +4269,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3053,7 +4280,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3064,7 +4291,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3075,7 +4302,7 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3086,7 +4313,7 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3108,7 +4335,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3119,7 +4346,7 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3185,7 +4412,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3196,7 +4423,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3218,7 +4445,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3273,7 +4500,7 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3284,7 +4511,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3295,7 +4522,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3306,7 +4533,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3328,7 +4555,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3361,7 +4588,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3383,7 +4610,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3405,7 +4632,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3416,7 +4643,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3438,7 +4665,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3449,7 +4676,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3460,7 +4687,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3471,7 +4698,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3482,7 +4709,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3493,7 +4720,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3504,7 +4731,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.6666666666666666</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3515,7 +4742,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3526,7 +4753,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3537,7 +4764,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3559,7 +4786,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3570,7 +4797,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3581,7 +4808,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3603,7 +4830,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3625,7 +4852,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3669,7 +4896,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3680,7 +4907,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3691,7 +4918,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3702,7 +4929,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3713,7 +4940,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3724,7 +4951,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3735,7 +4962,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.6666666666666666</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3746,7 +4973,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3757,7 +4984,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3779,7 +5006,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3801,7 +5028,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3812,7 +5039,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3834,7 +5061,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3845,7 +5072,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3856,7 +5083,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3878,7 +5105,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3889,7 +5116,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3900,7 +5127,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3933,7 +5160,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3944,7 +5171,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3988,7 +5215,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4021,7 +5248,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4032,7 +5259,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4054,7 +5281,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4087,7 +5314,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4109,7 +5336,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4120,7 +5347,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4186,7 +5413,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4197,7 +5424,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4219,7 +5446,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4241,7 +5468,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4252,7 +5479,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4285,7 +5512,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4296,7 +5523,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4307,7 +5534,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4318,7 +5545,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4329,7 +5556,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4340,7 +5567,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4351,7 +5578,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4362,7 +5589,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4373,7 +5600,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4395,7 +5622,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4406,7 +5633,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4417,7 +5644,4506 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>288</v>
+      </c>
+      <c r="C290">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>289</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>290</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>291</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>292</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>293</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>294</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>295</v>
+      </c>
+      <c r="C297">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>296</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>297</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>298</v>
+      </c>
+      <c r="C300">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>299</v>
+      </c>
+      <c r="C301">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>300</v>
+      </c>
+      <c r="C302">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>301</v>
+      </c>
+      <c r="C303">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>302</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>303</v>
+      </c>
+      <c r="C305">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>304</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>305</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>306</v>
+      </c>
+      <c r="C308">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>307</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>308</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>309</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>310</v>
+      </c>
+      <c r="C312">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>311</v>
+      </c>
+      <c r="C313">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>312</v>
+      </c>
+      <c r="C314">
+        <v>0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>313</v>
+      </c>
+      <c r="C315">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>314</v>
+      </c>
+      <c r="C316">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>315</v>
+      </c>
+      <c r="C317">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>316</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>317</v>
+      </c>
+      <c r="C319">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>318</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>319</v>
+      </c>
+      <c r="C321">
+        <v>0.4722222222222222</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>320</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>321</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>322</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>324</v>
+      </c>
+      <c r="C326">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>325</v>
+      </c>
+      <c r="C327">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>326</v>
+      </c>
+      <c r="C328">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>327</v>
+      </c>
+      <c r="C329">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>328</v>
+      </c>
+      <c r="C330">
+        <v>0.3214285714285715</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>329</v>
+      </c>
+      <c r="C331">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>330</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>331</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>332</v>
+      </c>
+      <c r="C334">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>333</v>
+      </c>
+      <c r="C335">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>334</v>
+      </c>
+      <c r="C336">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>335</v>
+      </c>
+      <c r="C337">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>336</v>
+      </c>
+      <c r="C338">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>337</v>
+      </c>
+      <c r="C339">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>338</v>
+      </c>
+      <c r="C340">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>339</v>
+      </c>
+      <c r="C341">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>340</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>341</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>342</v>
+      </c>
+      <c r="C344">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>343</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>344</v>
+      </c>
+      <c r="C346">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>345</v>
+      </c>
+      <c r="C347">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>346</v>
+      </c>
+      <c r="C348">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>347</v>
+      </c>
+      <c r="C349">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>349</v>
+      </c>
+      <c r="C351">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>350</v>
+      </c>
+      <c r="C352">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>351</v>
+      </c>
+      <c r="C353">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>352</v>
+      </c>
+      <c r="C354">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>353</v>
+      </c>
+      <c r="C355">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>354</v>
+      </c>
+      <c r="C356">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>355</v>
+      </c>
+      <c r="C357">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>356</v>
+      </c>
+      <c r="C358">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>357</v>
+      </c>
+      <c r="C359">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>358</v>
+      </c>
+      <c r="C360">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>359</v>
+      </c>
+      <c r="C361">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>360</v>
+      </c>
+      <c r="C362">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>361</v>
+      </c>
+      <c r="C363">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>362</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>363</v>
+      </c>
+      <c r="C365">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>364</v>
+      </c>
+      <c r="C366">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>365</v>
+      </c>
+      <c r="C367">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>366</v>
+      </c>
+      <c r="C368">
+        <v>0.4761904761904762</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>367</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>368</v>
+      </c>
+      <c r="C370">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>369</v>
+      </c>
+      <c r="C371">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>370</v>
+      </c>
+      <c r="C372">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>371</v>
+      </c>
+      <c r="C373">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>372</v>
+      </c>
+      <c r="C374">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>373</v>
+      </c>
+      <c r="C375">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>374</v>
+      </c>
+      <c r="C376">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>375</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>376</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>377</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>378</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>379</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>380</v>
+      </c>
+      <c r="C382">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>381</v>
+      </c>
+      <c r="C383">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>382</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>383</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>384</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>385</v>
+      </c>
+      <c r="C387">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>386</v>
+      </c>
+      <c r="C388">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>387</v>
+      </c>
+      <c r="C389">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>388</v>
+      </c>
+      <c r="C390">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>389</v>
+      </c>
+      <c r="C391">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>390</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>391</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>392</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>393</v>
+      </c>
+      <c r="C395">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>394</v>
+      </c>
+      <c r="C396">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>395</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>396</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>397</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>398</v>
+      </c>
+      <c r="C400">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>399</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>400</v>
+      </c>
+      <c r="C402">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>401</v>
+      </c>
+      <c r="C403">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>402</v>
+      </c>
+      <c r="C404">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>403</v>
+      </c>
+      <c r="C405">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>404</v>
+      </c>
+      <c r="C406">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>405</v>
+      </c>
+      <c r="C407">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>406</v>
+      </c>
+      <c r="C408">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>407</v>
+      </c>
+      <c r="C409">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>408</v>
+      </c>
+      <c r="C410">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>409</v>
+      </c>
+      <c r="C411">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>410</v>
+      </c>
+      <c r="C412">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>411</v>
+      </c>
+      <c r="C413">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>412</v>
+      </c>
+      <c r="C414">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>413</v>
+      </c>
+      <c r="C415">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>414</v>
+      </c>
+      <c r="C416">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>415</v>
+      </c>
+      <c r="C417">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>416</v>
+      </c>
+      <c r="C418">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>417</v>
+      </c>
+      <c r="C419">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>418</v>
+      </c>
+      <c r="C420">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>419</v>
+      </c>
+      <c r="C421">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>420</v>
+      </c>
+      <c r="C422">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>421</v>
+      </c>
+      <c r="C423">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>422</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>423</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>424</v>
+      </c>
+      <c r="C426">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>425</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>426</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>427</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>428</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>429</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>430</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>431</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>432</v>
+      </c>
+      <c r="C434">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>433</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>434</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>435</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>436</v>
+      </c>
+      <c r="C438">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>437</v>
+      </c>
+      <c r="C439">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>438</v>
+      </c>
+      <c r="C440">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>439</v>
+      </c>
+      <c r="C441">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>440</v>
+      </c>
+      <c r="C442">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>441</v>
+      </c>
+      <c r="C443">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>442</v>
+      </c>
+      <c r="C444">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>443</v>
+      </c>
+      <c r="C445">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>444</v>
+      </c>
+      <c r="C446">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>445</v>
+      </c>
+      <c r="C447">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>446</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>447</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>448</v>
+      </c>
+      <c r="C450">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>449</v>
+      </c>
+      <c r="C451">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>450</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>451</v>
+      </c>
+      <c r="C453">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>452</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>453</v>
+      </c>
+      <c r="C455">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>454</v>
+      </c>
+      <c r="C456">
+        <v>0.4666666666666667</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>455</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>456</v>
+      </c>
+      <c r="C458">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>457</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>458</v>
+      </c>
+      <c r="C460">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>459</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>460</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>461</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>462</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>463</v>
+      </c>
+      <c r="C465">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>464</v>
+      </c>
+      <c r="C466">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>465</v>
+      </c>
+      <c r="C467">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>466</v>
+      </c>
+      <c r="C468">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>467</v>
+      </c>
+      <c r="C469">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>468</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>469</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>470</v>
+      </c>
+      <c r="C472">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>471</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>472</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>473</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>474</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>475</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>476</v>
+      </c>
+      <c r="C478">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>477</v>
+      </c>
+      <c r="C479">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>478</v>
+      </c>
+      <c r="C480">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>479</v>
+      </c>
+      <c r="C481">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>480</v>
+      </c>
+      <c r="C482">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>481</v>
+      </c>
+      <c r="C483">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>482</v>
+      </c>
+      <c r="C484">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>483</v>
+      </c>
+      <c r="C485">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>484</v>
+      </c>
+      <c r="C486">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>485</v>
+      </c>
+      <c r="C487">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>486</v>
+      </c>
+      <c r="C488">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>487</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>488</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>489</v>
+      </c>
+      <c r="C491">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>490</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>491</v>
+      </c>
+      <c r="C493">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>492</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>493</v>
+      </c>
+      <c r="C495">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>494</v>
+      </c>
+      <c r="C496">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>495</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>496</v>
+      </c>
+      <c r="C498">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>497</v>
+      </c>
+      <c r="C499">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>498</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>499</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>500</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>501</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>502</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>503</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>504</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>505</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>506</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>507</v>
+      </c>
+      <c r="C509">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>508</v>
+      </c>
+      <c r="C510">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>509</v>
+      </c>
+      <c r="C511">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>510</v>
+      </c>
+      <c r="C512">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>511</v>
+      </c>
+      <c r="C513">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>512</v>
+      </c>
+      <c r="C514">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>513</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>514</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>515</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>516</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>517</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>518</v>
+      </c>
+      <c r="C520">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>519</v>
+      </c>
+      <c r="C521">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>520</v>
+      </c>
+      <c r="C522">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>521</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>522</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>523</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>524</v>
+      </c>
+      <c r="C526">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>525</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>526</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>527</v>
+      </c>
+      <c r="C529">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>528</v>
+      </c>
+      <c r="C530">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>529</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>530</v>
+      </c>
+      <c r="C532">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>531</v>
+      </c>
+      <c r="C533">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>532</v>
+      </c>
+      <c r="C534">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>533</v>
+      </c>
+      <c r="C535">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>534</v>
+      </c>
+      <c r="C536">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>535</v>
+      </c>
+      <c r="C537">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>536</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>537</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>538</v>
+      </c>
+      <c r="C540">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>539</v>
+      </c>
+      <c r="C541">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>540</v>
+      </c>
+      <c r="C542">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>541</v>
+      </c>
+      <c r="C543">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>542</v>
+      </c>
+      <c r="C544">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>543</v>
+      </c>
+      <c r="C545">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>544</v>
+      </c>
+      <c r="C546">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>545</v>
+      </c>
+      <c r="C547">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>546</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>547</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>548</v>
+      </c>
+      <c r="C550">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>549</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>550</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>551</v>
+      </c>
+      <c r="C553">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>552</v>
+      </c>
+      <c r="C554">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>553</v>
+      </c>
+      <c r="C555">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>554</v>
+      </c>
+      <c r="C556">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>555</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>556</v>
+      </c>
+      <c r="C558">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>557</v>
+      </c>
+      <c r="C559">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>558</v>
+      </c>
+      <c r="C560">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>559</v>
+      </c>
+      <c r="C561">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>560</v>
+      </c>
+      <c r="C562">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>561</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>562</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>563</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>564</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>565</v>
+      </c>
+      <c r="C567">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>566</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>567</v>
+      </c>
+      <c r="C569">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>568</v>
+      </c>
+      <c r="C570">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>569</v>
+      </c>
+      <c r="C571">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>570</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>571</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>572</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>573</v>
+      </c>
+      <c r="C575">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>574</v>
+      </c>
+      <c r="C576">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>575</v>
+      </c>
+      <c r="C577">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>576</v>
+      </c>
+      <c r="C578">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" t="s">
+        <v>577</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>578</v>
+      </c>
+      <c r="C580">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>579</v>
+      </c>
+      <c r="C581">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>580</v>
+      </c>
+      <c r="C582">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" t="s">
+        <v>581</v>
+      </c>
+      <c r="C583">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" t="s">
+        <v>582</v>
+      </c>
+      <c r="C584">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>583</v>
+      </c>
+      <c r="C585">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>584</v>
+      </c>
+      <c r="C586">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>585</v>
+      </c>
+      <c r="C587">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>586</v>
+      </c>
+      <c r="C588">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>587</v>
+      </c>
+      <c r="C589">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>588</v>
+      </c>
+      <c r="C590">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>589</v>
+      </c>
+      <c r="C591">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>590</v>
+      </c>
+      <c r="C592">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>591</v>
+      </c>
+      <c r="C593">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>592</v>
+      </c>
+      <c r="C594">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>593</v>
+      </c>
+      <c r="C595">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>594</v>
+      </c>
+      <c r="C596">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>595</v>
+      </c>
+      <c r="C597">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>596</v>
+      </c>
+      <c r="C598">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
+        <v>597</v>
+      </c>
+      <c r="C599">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>598</v>
+      </c>
+      <c r="C600">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>599</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>600</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>601</v>
+      </c>
+      <c r="C603">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>602</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>603</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" t="s">
+        <v>604</v>
+      </c>
+      <c r="C606">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>605</v>
+      </c>
+      <c r="C607">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" t="s">
+        <v>606</v>
+      </c>
+      <c r="C608">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" t="s">
+        <v>607</v>
+      </c>
+      <c r="C609">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>608</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
+        <v>609</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>610</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>611</v>
+      </c>
+      <c r="C613">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614" t="s">
+        <v>612</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615" t="s">
+        <v>613</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616" t="s">
+        <v>614</v>
+      </c>
+      <c r="C616">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617" t="s">
+        <v>615</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" t="s">
+        <v>616</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619" t="s">
+        <v>617</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620" t="s">
+        <v>618</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621" t="s">
+        <v>619</v>
+      </c>
+      <c r="C621">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622" t="s">
+        <v>620</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623" t="s">
+        <v>621</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624" t="s">
+        <v>622</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625" t="s">
+        <v>623</v>
+      </c>
+      <c r="C625">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626" t="s">
+        <v>624</v>
+      </c>
+      <c r="C626">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627" t="s">
+        <v>625</v>
+      </c>
+      <c r="C627">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628" t="s">
+        <v>626</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629" t="s">
+        <v>627</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630" t="s">
+        <v>628</v>
+      </c>
+      <c r="C630">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631" t="s">
+        <v>629</v>
+      </c>
+      <c r="C631">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632" t="s">
+        <v>630</v>
+      </c>
+      <c r="C632">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633" t="s">
+        <v>631</v>
+      </c>
+      <c r="C633">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634" t="s">
+        <v>632</v>
+      </c>
+      <c r="C634">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635" t="s">
+        <v>633</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636" t="s">
+        <v>634</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637" t="s">
+        <v>635</v>
+      </c>
+      <c r="C637">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638" t="s">
+        <v>636</v>
+      </c>
+      <c r="C638">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639" t="s">
+        <v>637</v>
+      </c>
+      <c r="C639">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640" t="s">
+        <v>638</v>
+      </c>
+      <c r="C640">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641" t="s">
+        <v>639</v>
+      </c>
+      <c r="C641">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642" t="s">
+        <v>640</v>
+      </c>
+      <c r="C642">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643" t="s">
+        <v>641</v>
+      </c>
+      <c r="C643">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644" t="s">
+        <v>642</v>
+      </c>
+      <c r="C644">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645" t="s">
+        <v>643</v>
+      </c>
+      <c r="C645">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646" t="s">
+        <v>644</v>
+      </c>
+      <c r="C646">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647" t="s">
+        <v>645</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648" t="s">
+        <v>646</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649" t="s">
+        <v>647</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650" t="s">
+        <v>648</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651" t="s">
+        <v>649</v>
+      </c>
+      <c r="C651">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652" t="s">
+        <v>650</v>
+      </c>
+      <c r="C652">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653" t="s">
+        <v>651</v>
+      </c>
+      <c r="C653">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654" t="s">
+        <v>652</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655" t="s">
+        <v>653</v>
+      </c>
+      <c r="C655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656" t="s">
+        <v>654</v>
+      </c>
+      <c r="C656">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657" t="s">
+        <v>655</v>
+      </c>
+      <c r="C657">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658" t="s">
+        <v>656</v>
+      </c>
+      <c r="C658">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659" t="s">
+        <v>657</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660" t="s">
+        <v>658</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661" t="s">
+        <v>659</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662" t="s">
+        <v>660</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663" t="s">
+        <v>661</v>
+      </c>
+      <c r="C663">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664" t="s">
+        <v>662</v>
+      </c>
+      <c r="C664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665" t="s">
+        <v>663</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666" t="s">
+        <v>664</v>
+      </c>
+      <c r="C666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667" t="s">
+        <v>665</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668" t="s">
+        <v>666</v>
+      </c>
+      <c r="C668">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669" t="s">
+        <v>667</v>
+      </c>
+      <c r="C669">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670" t="s">
+        <v>668</v>
+      </c>
+      <c r="C670">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671" t="s">
+        <v>669</v>
+      </c>
+      <c r="C671">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672" t="s">
+        <v>670</v>
+      </c>
+      <c r="C672">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673" t="s">
+        <v>671</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674" t="s">
+        <v>672</v>
+      </c>
+      <c r="C674">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675" t="s">
+        <v>673</v>
+      </c>
+      <c r="C675">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676" t="s">
+        <v>674</v>
+      </c>
+      <c r="C676">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677" t="s">
+        <v>675</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678" t="s">
+        <v>676</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679" t="s">
+        <v>677</v>
+      </c>
+      <c r="C679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680" t="s">
+        <v>678</v>
+      </c>
+      <c r="C680">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681" t="s">
+        <v>679</v>
+      </c>
+      <c r="C681">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682" t="s">
+        <v>680</v>
+      </c>
+      <c r="C682">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683" t="s">
+        <v>681</v>
+      </c>
+      <c r="C683">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684" t="s">
+        <v>682</v>
+      </c>
+      <c r="C684">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685" t="s">
+        <v>683</v>
+      </c>
+      <c r="C685">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686" t="s">
+        <v>684</v>
+      </c>
+      <c r="C686">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687" t="s">
+        <v>685</v>
+      </c>
+      <c r="C687">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688" t="s">
+        <v>686</v>
+      </c>
+      <c r="C688">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689" t="s">
+        <v>687</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690" t="s">
+        <v>688</v>
+      </c>
+      <c r="C690">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691" t="s">
+        <v>689</v>
+      </c>
+      <c r="C691">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692" t="s">
+        <v>690</v>
+      </c>
+      <c r="C692">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693" t="s">
+        <v>691</v>
+      </c>
+      <c r="C693">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694" t="s">
+        <v>692</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695" t="s">
+        <v>693</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696" t="s">
+        <v>694</v>
+      </c>
+      <c r="C696">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697" t="s">
+        <v>695</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698" t="s">
+        <v>696</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
